--- a/Weekly Tasks Folder/28.02.2016 - 04.03.2016/Мазитова Лиля План.xlsx
+++ b/Weekly Tasks Folder/28.02.2016 - 04.03.2016/Мазитова Лиля План.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>Задание /День</t>
   </si>
@@ -73,13 +73,16 @@
   </si>
   <si>
     <t>статус выполнения</t>
+  </si>
+  <si>
+    <t>выполнено</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,8 +117,17 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,6 +164,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -297,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -310,42 +328,45 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -656,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,55 +693,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="10"/>
@@ -732,7 +753,7 @@
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="10"/>
@@ -744,7 +765,7 @@
       <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="11"/>
@@ -756,7 +777,7 @@
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="10"/>
@@ -768,7 +789,7 @@
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="10"/>
@@ -780,7 +801,7 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="10"/>
@@ -792,7 +813,7 @@
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="10"/>
@@ -815,8 +836,8 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -832,8 +853,8 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
@@ -847,64 +868,64 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="23"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="14"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="10"/>
@@ -912,12 +933,14 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="24"/>
+      <c r="G19" s="15"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
+      <c r="I19" s="26" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="10"/>
@@ -926,42 +949,48 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="10"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="26" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="24"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
+      <c r="I21" s="26" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="10"/>
-      <c r="C22" s="24"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
+      <c r="I22" s="26" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="24"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -969,27 +998,27 @@
       <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
-      <c r="E24" s="24"/>
+      <c r="E24" s="15"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="24"/>
+      <c r="F25" s="15"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
